--- a/SCBAA/2018/Region 13.xlsx
+++ b/SCBAA/2018/Region 13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2121C3-1FD0-4CEA-BC99-AFF878FE044F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E360CF-4501-4B53-9955-BC1BC9091287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14835" yWindow="375" windowWidth="12615" windowHeight="12495" firstSheet="2" activeTab="5" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" activeTab="4" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Bayugan" sheetId="10" r:id="rId1"/>
@@ -20,13 +20,17 @@
     <sheet name="Surigao" sheetId="17" r:id="rId5"/>
     <sheet name="Tandag" sheetId="18" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1397,29 +1401,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover Page"/>
-      <sheetName val="Position"/>
-      <sheetName val="Performance"/>
-      <sheetName val="Cash Flows"/>
-      <sheetName val="Equity"/>
-      <sheetName val="SCBAA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1719,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EECD59-C1E3-4A87-85F0-D27E48B54FFB}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,7 +1826,6 @@
         <v>23</v>
       </c>
       <c r="E11" s="66">
-        <f>7049201.37+588578.44</f>
         <v>7637779.8100000005</v>
       </c>
     </row>
@@ -1857,7 +1837,6 @@
         <v>24</v>
       </c>
       <c r="E12" s="66">
-        <f>29740496.15+2310735.77+343100</f>
         <v>32394331.919999998</v>
       </c>
     </row>
@@ -1869,7 +1848,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="66">
-        <f>20700+1479331.2+752536.2+135539.96+10036979.23</f>
         <v>12425086.59</v>
       </c>
     </row>
@@ -1881,7 +1859,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>52457198.319999993</v>
       </c>
     </row>
@@ -1902,7 +1879,6 @@
         <v>26</v>
       </c>
       <c r="E16" s="66">
-        <f>12253249.02</f>
         <v>12253249.02</v>
       </c>
     </row>
@@ -1914,7 +1890,6 @@
         <v>27</v>
       </c>
       <c r="E17" s="66">
-        <f>30465176.15</f>
         <v>30465176.149999999</v>
       </c>
     </row>
@@ -1926,7 +1901,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="71">
-        <f>194137.13+21208.73</f>
         <v>215345.86000000002</v>
       </c>
     </row>
@@ -1938,7 +1912,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>42933771.030000001</v>
       </c>
     </row>
@@ -2043,7 +2016,6 @@
         <v>38</v>
       </c>
       <c r="E29" s="66">
-        <f>6483176.99</f>
         <v>6483176.9900000002</v>
       </c>
     </row>
@@ -2055,7 +2027,6 @@
         <v>39</v>
       </c>
       <c r="E30" s="66">
-        <f>15904958.64</f>
         <v>15904958.640000001</v>
       </c>
     </row>
@@ -2131,7 +2102,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>998991440.17000008</v>
       </c>
     </row>
@@ -2177,7 +2147,6 @@
         <v>10</v>
       </c>
       <c r="E42" s="66">
-        <f>6235750.6+6037296.47+6297371.62+6607977.69+10167181.9+5767375.8+6143082.03+6834057.25+6702404.83+6748362.27+12087644.38+7802774.35+1235256.97+35590.55</f>
         <v>88702126.709999979</v>
       </c>
     </row>
@@ -2189,7 +2158,6 @@
         <v>11</v>
       </c>
       <c r="E43" s="66">
-        <f>8167940.94+8904950.75+15323918.14+25296807.1+10526776.83+11750781.97+18492379.94+11323104.9+19810073.79+51594.3+3248.53+25110914.55-25217576.04+23631563.31-3000+15782516.04+5918791.92</f>
         <v>174874786.97</v>
       </c>
     </row>
@@ -2201,7 +2169,6 @@
         <v>12</v>
       </c>
       <c r="E44" s="66">
-        <f>2469237.65+12606310.62+11074165.84+1794088.95+1476950.67+19073784.94+345823+192720-3370921.41+350928+13485545.97+1029804</f>
         <v>60528438.230000004</v>
       </c>
     </row>
@@ -2233,7 +2200,6 @@
         <v>11</v>
       </c>
       <c r="E47" s="66">
-        <f>140475.25</f>
         <v>140475.25</v>
       </c>
     </row>
@@ -2265,7 +2231,6 @@
         <v>10</v>
       </c>
       <c r="E50" s="66">
-        <f>2318979.45+2457518.33+2700384.26-4103.98+2652960.28+4682086.68+2466198.68+3224605.93+2974408.18+2853083+3136310.45+5191588.96+4007701.21+1811581.13</f>
         <v>40473302.560000002</v>
       </c>
     </row>
@@ -2277,7 +2242,6 @@
         <v>11</v>
       </c>
       <c r="E51" s="66">
-        <f>22643.6+1011355.06+1441066.87+753073.36+1692451.26+505476.1+1329087.29+1558330.1+1596087.71+1315194.89+1809072.97+2767746.55+278233.66</f>
         <v>16079819.420000002</v>
       </c>
     </row>
@@ -2289,7 +2253,6 @@
         <v>12</v>
       </c>
       <c r="E52" s="66">
-        <f>7500+92076+2095700+19125+177400+105660+221892+449500</f>
         <v>3168853</v>
       </c>
     </row>
@@ -2394,7 +2357,6 @@
         <v>10</v>
       </c>
       <c r="E62" s="66">
-        <f>387483.3+338724.34+389929.06+380126.75+625972.82+342724.34+428662.85+368289.48+383352.8+371757.82+803542.65+532545.56+139000</f>
         <v>5492111.7699999996</v>
       </c>
     </row>
@@ -2406,7 +2368,6 @@
         <v>11</v>
       </c>
       <c r="E63" s="66">
-        <f>16051.56+19522.84+1001578.58+417690.02+385220.23+290728.61+456656.34+632861.46+359867.28+1394457.82+562660.01+1069504.63+82279.54</f>
         <v>6689078.9199999999</v>
       </c>
     </row>
@@ -2438,7 +2399,6 @@
         <v>10</v>
       </c>
       <c r="E66" s="66">
-        <f>1523220.22+1365443.02+1535457.48+1594059.57+2817979.09+1521979.42+1642012.5+1717219.52+1655832.03+1652326.73+3411314.55+2205059.32+661615.95</f>
         <v>23303519.399999999</v>
       </c>
     </row>
@@ -2450,7 +2410,6 @@
         <v>11</v>
       </c>
       <c r="E67" s="66">
-        <f>2891877.88+4857615.19+690928.46+931309.27+955108.26+16381494.17+7771850.22+1466001.32+1047979.2-51594.3-3248.53+1761292.56+2774548.23+5853893.48+2173519.61</f>
         <v>49502575.020000011</v>
       </c>
     </row>
@@ -2462,7 +2421,6 @@
         <v>12</v>
       </c>
       <c r="E68" s="66">
-        <f>24300+95400+53000+403894+88000+120730+1575550.36+6839934.08+26229621.16+99900</f>
         <v>35530329.600000001</v>
       </c>
     </row>
@@ -2565,7 +2523,6 @@
         <v>49</v>
       </c>
       <c r="E78" s="66">
-        <f>600000+11240+12500+134270+68820+221305+374950+238572+15228343</f>
         <v>16890000</v>
       </c>
     </row>
@@ -2577,7 +2534,6 @@
         <v>50</v>
       </c>
       <c r="E79" s="66">
-        <f>22000+13070262.31+3478131.08+6990000+2724935.57+1381983.57-10000</f>
         <v>27657312.530000001</v>
       </c>
     </row>
@@ -2598,7 +2554,6 @@
         <v>49</v>
       </c>
       <c r="E81" s="66">
-        <f>1000000+1000000+4100000+3800000+4000000+1150000-9027.8</f>
         <v>15040972.199999999</v>
       </c>
     </row>
@@ -2610,7 +2565,6 @@
         <v>50</v>
       </c>
       <c r="E82" s="66">
-        <f>2179760.54+10057407.76+8385372.58+2637606.37+5616004.12+26782273.52+10254017.7+15978874.64</f>
         <v>81891317.230000004</v>
       </c>
     </row>
@@ -2662,7 +2616,6 @@
         <v>49</v>
       </c>
       <c r="E87" s="66">
-        <f>145400+147800+42500+108900+153900+11500+390136+683437.45+39500</f>
         <v>1723073.45</v>
       </c>
     </row>
@@ -2674,7 +2627,6 @@
         <v>50</v>
       </c>
       <c r="E88" s="66">
-        <f>10000+16995+39990+29998</f>
         <v>96983</v>
       </c>
     </row>
@@ -2706,7 +2658,6 @@
         <v>49</v>
       </c>
       <c r="E91" s="66">
-        <f>25788386.64+149850+6259128.56+3000+1674816.21+1427790.15+2571333.76</f>
         <v>37874305.319999993</v>
       </c>
     </row>
@@ -2718,7 +2669,6 @@
         <v>50</v>
       </c>
       <c r="E92" s="66">
-        <f>3520771.41-149850+658505+581400+4099971.23+3773088.93</f>
         <v>12483886.57</v>
       </c>
     </row>
@@ -2728,7 +2678,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>698143267.15000021</v>
       </c>
     </row>
@@ -2760,7 +2709,6 @@
         <v>12</v>
       </c>
       <c r="E96" s="66">
-        <f>974820.46+12922620.44+2829201.9+15114886.07+4535424.93+7858263.55+44980+435962.97+2304809.29-54300</f>
         <v>46966669.609999992</v>
       </c>
       <c r="F96" s="10"/>
@@ -2859,7 +2807,6 @@
         <v>12</v>
       </c>
       <c r="E106" s="66">
-        <f>337134.72+8263.5</f>
         <v>345398.22</v>
       </c>
     </row>
@@ -2878,7 +2825,6 @@
         <v>12</v>
       </c>
       <c r="E108" s="71">
-        <f>21729547.6+14037148.31+246693.5+5002406.68+7582518.09+2363378.87-92815+92815+3804900</f>
         <v>54766593.050000004</v>
       </c>
     </row>
@@ -2906,7 +2852,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>175725020.63</v>
       </c>
     </row>
@@ -2918,7 +2863,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>873868287.78000021</v>
       </c>
       <c r="F112" t="s">
@@ -2943,8 +2887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E50FEDA-E51F-4ADA-8EBE-287218B179DA}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3102,7 +3046,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>25371358.010000002</v>
       </c>
     </row>
@@ -3145,7 +3088,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="55">
-        <f>7046992.52+7318643.98</f>
         <v>14365636.5</v>
       </c>
     </row>
@@ -3157,7 +3099,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>51414915.740000002</v>
       </c>
     </row>
@@ -3348,7 +3289,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>674536168.75</v>
       </c>
     </row>
@@ -3925,7 +3865,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>632685771.15999985</v>
       </c>
     </row>
@@ -4092,7 +4031,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="55">
-        <f>153844+22583209.29</f>
         <v>22737053.289999999</v>
       </c>
     </row>
@@ -4101,7 +4039,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>94250690.649999976</v>
       </c>
     </row>
@@ -4113,7 +4050,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>726936461.80999982</v>
       </c>
     </row>
@@ -4135,8 +4071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3C7E2F-6921-492A-994A-2D9F2EE4CA90}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4294,7 +4230,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>0</v>
       </c>
     </row>
@@ -4348,7 +4283,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f>SUM(E16:E18)</f>
         <v>0</v>
       </c>
     </row>
@@ -4539,7 +4473,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>0</v>
       </c>
     </row>
@@ -4859,7 +4792,6 @@
         <v>12</v>
       </c>
       <c r="E68" s="51">
-        <f>SUM([1]SCBAA!$P$228,[1]SCBAA!$P$238,[1]SCBAA!$P$259)</f>
         <v>0</v>
       </c>
     </row>
@@ -5117,7 +5049,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>0</v>
       </c>
     </row>
@@ -5292,7 +5223,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -5304,7 +5234,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>0</v>
       </c>
     </row>
@@ -6516,8 +6445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191BD2DF-E051-4277-93AB-C7AB36FD6A7D}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="E107" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6664,7 +6593,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="56">
-        <f>7320984.49+27682056.66</f>
         <v>35003041.149999999</v>
       </c>
     </row>
@@ -6676,7 +6604,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>127184148.78999999</v>
       </c>
     </row>
@@ -6719,7 +6646,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="55">
-        <f>641157.54+35187295.96</f>
         <v>35828453.5</v>
       </c>
     </row>
@@ -6731,7 +6657,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>86441508.480000004</v>
       </c>
     </row>
@@ -6922,7 +6847,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>834022005.44999993</v>
       </c>
     </row>
@@ -6968,7 +6892,6 @@
         <v>10</v>
       </c>
       <c r="E42" s="55">
-        <f>224338487.53-E68+1833534.73</f>
         <v>225505157.25999999</v>
       </c>
     </row>
@@ -6980,7 +6903,6 @@
         <v>11</v>
       </c>
       <c r="E43" s="55">
-        <f>371819160.49-E69+11752958.22</f>
         <v>383572118.71000004</v>
       </c>
     </row>
@@ -6992,7 +6914,6 @@
         <v>12</v>
       </c>
       <c r="E44" s="55">
-        <f>9826517.45-E70+5586263.45</f>
         <v>15412780.899999999</v>
       </c>
     </row>
@@ -7223,7 +7144,6 @@
         <v>10</v>
       </c>
       <c r="E66" s="55">
-        <f>6418608.04+2771198.57+15301487.88</f>
         <v>24491294.490000002</v>
       </c>
     </row>
@@ -7235,7 +7155,6 @@
         <v>11</v>
       </c>
       <c r="E67" s="55">
-        <f>1438306.2+955188.31+1357449.78</f>
         <v>3750944.29</v>
       </c>
     </row>
@@ -7247,7 +7166,6 @@
         <v>12</v>
       </c>
       <c r="E68" s="55">
-        <f>421335+0+245530</f>
         <v>666865</v>
       </c>
     </row>
@@ -7505,7 +7423,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>771595020.06999993</v>
       </c>
     </row>
@@ -7680,7 +7597,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -7692,7 +7608,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>771595020.06999993</v>
       </c>
     </row>
@@ -7714,7 +7629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF2697F-5935-4F01-B760-AEFEFA9AC08B}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
